--- a/Document/ガントチャート.xlsx
+++ b/Document/ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser.DA\Desktop\Mr.Driller\発表用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser.DA\Desktop\Campus\FrenchCruller\Mr.Driller\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
   <si>
     <t>▼準備</t>
     <rPh sb="1" eb="3">
@@ -517,6 +517,14 @@
     <rPh sb="10" eb="12">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1280,6 +1288,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1354,21 +1377,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1656,24 +1664,24 @@
   <dimension ref="A1:Z71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:W6"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="9.375" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:26" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1693,10 +1701,10 @@
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
       <c r="S1" s="22"/>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="U1" s="58"/>
+      <c r="U1" s="63"/>
       <c r="V1" s="85" t="s">
         <v>86</v>
       </c>
@@ -1704,18 +1712,18 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="42" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:26" ht="43.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="23"/>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
@@ -1731,68 +1739,68 @@
       <c r="V2" s="24"/>
       <c r="W2" s="25"/>
     </row>
-    <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="59" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="64"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="69"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="67"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="72"/>
       <c r="X4" s="1"/>
       <c r="Y4" t="s">
         <v>54</v>
@@ -1801,32 +1809,32 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="67"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="72"/>
       <c r="X5" s="1"/>
       <c r="Y5" t="s">
         <v>62</v>
@@ -1835,46 +1843,46 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6"/>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="70"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="75"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="35"/>
       <c r="Z6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="X7" s="1"/>
       <c r="Y7" s="36"/>
       <c r="Z7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="45" t="s">
         <v>1</v>
       </c>
@@ -1946,35 +1954,35 @@
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A9" s="80" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A9" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="83"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="58"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -2008,7 +2016,7 @@
       <c r="W10" s="12"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
@@ -2023,7 +2031,9 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="54"/>
+      <c r="I11" s="54" t="s">
+        <v>87</v>
+      </c>
       <c r="J11" s="54"/>
       <c r="K11" s="54"/>
       <c r="L11" s="54"/>
@@ -2040,7 +2050,7 @@
       <c r="W11" s="12"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
@@ -2074,7 +2084,7 @@
       <c r="W12" s="12"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="13"/>
@@ -2100,7 +2110,7 @@
       <c r="W13" s="12"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
@@ -2128,7 +2138,7 @@
       <c r="W14" s="16"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15" s="39" t="s">
         <v>55</v>
       </c>
@@ -2156,7 +2166,7 @@
       <c r="W15" s="41"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
         <v>5</v>
       </c>
@@ -2190,7 +2200,7 @@
       <c r="W16" s="12"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
         <v>6</v>
       </c>
@@ -2222,7 +2232,7 @@
       <c r="W17" s="12"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
         <v>7</v>
       </c>
@@ -2256,7 +2266,7 @@
       <c r="W18" s="12"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>8</v>
       </c>
@@ -2286,7 +2296,7 @@
       <c r="W19" s="12"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="7"/>
@@ -2312,7 +2322,7 @@
       <c r="W20" s="5"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="39" t="s">
         <v>56</v>
       </c>
@@ -2340,7 +2350,7 @@
       <c r="W21" s="41"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
         <v>12</v>
       </c>
@@ -2372,7 +2382,7 @@
       <c r="W22" s="12"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="7"/>
@@ -2398,7 +2408,7 @@
       <c r="W23" s="5"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="39" t="s">
         <v>57</v>
       </c>
@@ -2426,7 +2436,7 @@
       <c r="W24" s="33"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="40" t="s">
         <v>81</v>
       </c>
@@ -2458,7 +2468,7 @@
       <c r="W25" s="5"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="7"/>
@@ -2484,7 +2494,7 @@
       <c r="W26" s="5"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A27" s="39" t="s">
         <v>58</v>
       </c>
@@ -2512,7 +2522,7 @@
       <c r="W27" s="41"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
         <v>13</v>
       </c>
@@ -2544,7 +2554,7 @@
       <c r="W28" s="5"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
         <v>14</v>
       </c>
@@ -2574,7 +2584,7 @@
       <c r="W29" s="5"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A30" s="8" t="s">
         <v>17</v>
       </c>
@@ -2604,7 +2614,7 @@
       <c r="W30" s="5"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
         <v>15</v>
       </c>
@@ -2634,7 +2644,7 @@
       <c r="W31" s="5"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A32" s="8" t="s">
         <v>18</v>
       </c>
@@ -2664,7 +2674,7 @@
       <c r="W32" s="5"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
         <v>16</v>
       </c>
@@ -2677,8 +2687,10 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="84"/>
+      <c r="I33" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J33" s="59"/>
       <c r="K33" s="18"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -2694,7 +2706,7 @@
       <c r="W33" s="5"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
         <v>19</v>
       </c>
@@ -2724,7 +2736,7 @@
       <c r="W34" s="5"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
         <v>20</v>
       </c>
@@ -2754,7 +2766,7 @@
       <c r="W35" s="5"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
@@ -2784,7 +2796,7 @@
       <c r="W36" s="5"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
         <v>22</v>
       </c>
@@ -2814,7 +2826,7 @@
       <c r="W37" s="5"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A38" s="8" t="s">
         <v>23</v>
       </c>
@@ -2844,7 +2856,7 @@
       <c r="W38" s="5"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="7"/>
@@ -2870,7 +2882,7 @@
       <c r="W39" s="5"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A40" s="39" t="s">
         <v>59</v>
       </c>
@@ -2898,7 +2910,7 @@
       <c r="W40" s="41"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A41" s="8" t="s">
         <v>10</v>
       </c>
@@ -2930,7 +2942,7 @@
       <c r="W41" s="5"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A42" s="8" t="s">
         <v>83</v>
       </c>
@@ -2960,7 +2972,7 @@
       <c r="W42" s="5"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="7"/>
@@ -2986,7 +2998,7 @@
       <c r="W43" s="5"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A44" s="39" t="s">
         <v>60</v>
       </c>
@@ -3014,7 +3026,7 @@
       <c r="W44" s="33"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A45" s="8" t="s">
         <v>9</v>
       </c>
@@ -3042,7 +3054,7 @@
       <c r="W45" s="31"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A46" s="8" t="s">
         <v>11</v>
       </c>
@@ -3070,7 +3082,7 @@
       <c r="W46" s="31"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="7"/>
@@ -3096,7 +3108,7 @@
       <c r="W47" s="5"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A48" s="9" t="s">
         <v>25</v>
       </c>
@@ -3124,7 +3136,7 @@
       <c r="W48" s="16"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8" t="s">
         <v>28</v>
       </c>
@@ -3153,7 +3165,7 @@
       <c r="V49" s="11"/>
       <c r="W49" s="31"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A50" s="8" t="s">
         <v>27</v>
       </c>
@@ -3182,7 +3194,7 @@
       <c r="V50" s="11"/>
       <c r="W50" s="31"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A51" s="8" t="s">
         <v>26</v>
       </c>
@@ -3215,7 +3227,7 @@
       <c r="V51" s="11"/>
       <c r="W51" s="31"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A52" s="8" t="s">
         <v>69</v>
       </c>
@@ -3246,7 +3258,7 @@
       <c r="V52" s="11"/>
       <c r="W52" s="31"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A53" s="9" t="s">
         <v>29</v>
       </c>
@@ -3273,7 +3285,7 @@
       <c r="V53" s="15"/>
       <c r="W53" s="16"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A54" s="8" t="s">
         <v>30</v>
       </c>
@@ -3302,7 +3314,7 @@
       <c r="V54" s="11"/>
       <c r="W54" s="31"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A55" s="8" t="s">
         <v>31</v>
       </c>
@@ -3331,7 +3343,7 @@
       <c r="V55" s="11"/>
       <c r="W55" s="31"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
         <v>38</v>
       </c>
@@ -3358,7 +3370,7 @@
       <c r="V56" s="11"/>
       <c r="W56" s="31"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A57" s="8" t="s">
         <v>39</v>
       </c>
@@ -3389,7 +3401,7 @@
       <c r="V57" s="11"/>
       <c r="W57" s="31"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A58" s="8" t="s">
         <v>40</v>
       </c>
@@ -3420,7 +3432,7 @@
       <c r="V58" s="18"/>
       <c r="W58" s="27"/>
     </row>
-    <row r="59" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="42"/>
@@ -3445,7 +3457,7 @@
       <c r="V59" s="43"/>
       <c r="W59" s="44"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A60" s="29"/>
       <c r="B60" s="29"/>
       <c r="C60" s="28"/>
@@ -3470,7 +3482,7 @@
       <c r="V60" s="28"/>
       <c r="W60" s="28"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A61" s="29"/>
       <c r="B61" s="29"/>
       <c r="C61" s="28"/>
@@ -3495,7 +3507,7 @@
       <c r="V61" s="28"/>
       <c r="W61" s="28"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A62" s="29"/>
       <c r="B62" s="29"/>
       <c r="C62" s="28"/>
@@ -3520,7 +3532,7 @@
       <c r="V62" s="28"/>
       <c r="W62" s="28"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
@@ -3545,7 +3557,7 @@
       <c r="V63" s="30"/>
       <c r="W63" s="30"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A64" s="30"/>
       <c r="B64" s="30"/>
       <c r="C64" s="28"/>
@@ -3570,7 +3582,7 @@
       <c r="V64" s="28"/>
       <c r="W64" s="28"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A65" s="29"/>
       <c r="B65" s="29"/>
       <c r="C65" s="28"/>
@@ -3595,7 +3607,7 @@
       <c r="V65" s="28"/>
       <c r="W65" s="28"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A66" s="29"/>
       <c r="B66" s="29"/>
       <c r="C66" s="28"/>
@@ -3620,7 +3632,7 @@
       <c r="V66" s="28"/>
       <c r="W66" s="28"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A67" s="29"/>
       <c r="B67" s="29"/>
       <c r="C67" s="28"/>
@@ -3645,7 +3657,7 @@
       <c r="V67" s="28"/>
       <c r="W67" s="28"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A68" s="29"/>
       <c r="B68" s="29"/>
       <c r="C68" s="28"/>
@@ -3670,7 +3682,7 @@
       <c r="V68" s="28"/>
       <c r="W68" s="28"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A69" s="29"/>
       <c r="B69" s="29"/>
       <c r="C69" s="28"/>
@@ -3695,7 +3707,7 @@
       <c r="V69" s="28"/>
       <c r="W69" s="28"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A70" s="29"/>
       <c r="B70" s="29"/>
       <c r="C70" s="28"/>
@@ -3720,7 +3732,7 @@
       <c r="V70" s="28"/>
       <c r="W70" s="28"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
       <c r="E71" s="28"/>

--- a/Document/ガントチャート.xlsx
+++ b/Document/ガントチャート.xlsx
@@ -631,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1116,13 +1116,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1380,6 +1393,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1663,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2687,18 +2706,11 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="J33" s="59"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="87"/>
+      <c r="R33" s="87"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
@@ -2722,9 +2734,9 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="18"/>
+      <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="N34" s="18"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -2752,9 +2764,9 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="18"/>
+      <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="N35" s="18"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -2783,9 +2795,9 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-      <c r="M36" s="18"/>
+      <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+      <c r="O36" s="18"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -2813,9 +2825,9 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="18"/>
+      <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
+      <c r="O37" s="18"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
@@ -2843,11 +2855,11 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
@@ -3149,15 +3161,17 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
+      <c r="I49" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J49" s="18"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
